--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slit1-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slit1-Sdc1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1784056666666667</v>
+        <v>0.4218206666666666</v>
       </c>
       <c r="H2">
-        <v>0.5352170000000001</v>
+        <v>1.265462</v>
       </c>
       <c r="I2">
-        <v>0.1010660696555743</v>
+        <v>0.204479520571209</v>
       </c>
       <c r="J2">
-        <v>0.1010660696555743</v>
+        <v>0.204479520571209</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.378475333333333</v>
+        <v>1.815761</v>
       </c>
       <c r="N2">
-        <v>4.135426</v>
+        <v>5.447283000000001</v>
       </c>
       <c r="O2">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="P2">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="Q2">
-        <v>0.2459278108268889</v>
+        <v>0.7659255155273333</v>
       </c>
       <c r="R2">
-        <v>2.213350297442</v>
+        <v>6.893329639746</v>
       </c>
       <c r="S2">
-        <v>0.005669519050035259</v>
+        <v>0.01432910019794303</v>
       </c>
       <c r="T2">
-        <v>0.005669519050035259</v>
+        <v>0.01432910019794303</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1784056666666667</v>
+        <v>0.4218206666666666</v>
       </c>
       <c r="H3">
-        <v>0.5352170000000001</v>
+        <v>1.265462</v>
       </c>
       <c r="I3">
-        <v>0.1010660696555743</v>
+        <v>0.204479520571209</v>
       </c>
       <c r="J3">
-        <v>0.1010660696555743</v>
+        <v>0.204479520571209</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>39.485284</v>
       </c>
       <c r="O3">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959071</v>
       </c>
       <c r="P3">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959072</v>
       </c>
       <c r="Q3">
-        <v>2.348132805180889</v>
+        <v>5.551902940134221</v>
       </c>
       <c r="R3">
-        <v>21.133195246628</v>
+        <v>49.967126461208</v>
       </c>
       <c r="S3">
-        <v>0.05413289219394868</v>
+        <v>0.1038662009629822</v>
       </c>
       <c r="T3">
-        <v>0.05413289219394868</v>
+        <v>0.1038662009629822</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1784056666666667</v>
+        <v>0.4218206666666666</v>
       </c>
       <c r="H4">
-        <v>0.5352170000000001</v>
+        <v>1.265462</v>
       </c>
       <c r="I4">
-        <v>0.1010660696555743</v>
+        <v>0.204479520571209</v>
       </c>
       <c r="J4">
-        <v>0.1010660696555743</v>
+        <v>0.204479520571209</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.203668</v>
+        <v>9.711409333333334</v>
       </c>
       <c r="N4">
-        <v>27.611004</v>
+        <v>29.134228</v>
       </c>
       <c r="O4">
-        <v>0.3745439506528277</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="P4">
-        <v>0.3745439506528276</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="Q4">
-        <v>1.641986525318667</v>
+        <v>4.096473159259555</v>
       </c>
       <c r="R4">
-        <v>14.777878727868</v>
+        <v>36.868258433336</v>
       </c>
       <c r="S4">
-        <v>0.03785368500575267</v>
+        <v>0.07663770584376051</v>
       </c>
       <c r="T4">
-        <v>0.03785368500575267</v>
+        <v>0.07663770584376051</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1784056666666667</v>
+        <v>0.4218206666666666</v>
       </c>
       <c r="H5">
-        <v>0.5352170000000001</v>
+        <v>1.265462</v>
       </c>
       <c r="I5">
-        <v>0.1010660696555743</v>
+        <v>0.204479520571209</v>
       </c>
       <c r="J5">
-        <v>0.1010660696555743</v>
+        <v>0.204479520571209</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.829094</v>
+        <v>1.222391</v>
       </c>
       <c r="N5">
-        <v>2.487282</v>
+        <v>3.667173</v>
       </c>
       <c r="O5">
-        <v>0.03374004171190829</v>
+        <v>0.04717593986711188</v>
       </c>
       <c r="P5">
-        <v>0.03374004171190828</v>
+        <v>0.04717593986711189</v>
       </c>
       <c r="Q5">
-        <v>0.1479150677993334</v>
+        <v>0.5156297865473333</v>
       </c>
       <c r="R5">
-        <v>1.331235610194</v>
+        <v>4.640668078926</v>
       </c>
       <c r="S5">
-        <v>0.003409973405837706</v>
+        <v>0.009646513566523223</v>
       </c>
       <c r="T5">
-        <v>0.003409973405837705</v>
+        <v>0.009646513566523223</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.875599</v>
       </c>
       <c r="I6">
-        <v>0.3541730161409773</v>
+        <v>0.3030684321645684</v>
       </c>
       <c r="J6">
-        <v>0.3541730161409773</v>
+        <v>0.3030684321645683</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.378475333333333</v>
+        <v>1.815761</v>
       </c>
       <c r="N6">
-        <v>4.135426</v>
+        <v>5.447283000000001</v>
       </c>
       <c r="O6">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="P6">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="Q6">
-        <v>0.8618223189082221</v>
+        <v>1.135213171946333</v>
       </c>
       <c r="R6">
-        <v>7.756400870173999</v>
+        <v>10.216918547517</v>
       </c>
       <c r="S6">
-        <v>0.01986809884724715</v>
+        <v>0.0212378135433239</v>
       </c>
       <c r="T6">
-        <v>0.01986809884724715</v>
+        <v>0.02123781354332389</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.875599</v>
       </c>
       <c r="I7">
-        <v>0.3541730161409773</v>
+        <v>0.3030684321645684</v>
       </c>
       <c r="J7">
-        <v>0.3541730161409773</v>
+        <v>0.3030684321645683</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>39.485284</v>
       </c>
       <c r="O7">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959071</v>
       </c>
       <c r="P7">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959072</v>
       </c>
       <c r="Q7">
         <v>8.228728798346221</v>
@@ -883,10 +883,10 @@
         <v>74.058559185116</v>
       </c>
       <c r="S7">
-        <v>0.1897017442758319</v>
+        <v>0.1539448380591187</v>
       </c>
       <c r="T7">
-        <v>0.1897017442758319</v>
+        <v>0.1539448380591187</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.875599</v>
       </c>
       <c r="I8">
-        <v>0.3541730161409773</v>
+        <v>0.3030684321645684</v>
       </c>
       <c r="J8">
-        <v>0.3541730161409773</v>
+        <v>0.3030684321645683</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.203668</v>
+        <v>9.711409333333334</v>
       </c>
       <c r="N8">
-        <v>27.611004</v>
+        <v>29.134228</v>
       </c>
       <c r="O8">
-        <v>0.3745439506528277</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="P8">
-        <v>0.3745439506528276</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="Q8">
-        <v>5.754130165710666</v>
+        <v>6.071569878063555</v>
       </c>
       <c r="R8">
-        <v>51.78717149139599</v>
+        <v>54.64412890257199</v>
       </c>
       <c r="S8">
-        <v>0.1326533606800694</v>
+        <v>0.1135882424307102</v>
       </c>
       <c r="T8">
-        <v>0.1326533606800694</v>
+        <v>0.1135882424307102</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.875599</v>
       </c>
       <c r="I9">
-        <v>0.3541730161409773</v>
+        <v>0.3030684321645684</v>
       </c>
       <c r="J9">
-        <v>0.3541730161409773</v>
+        <v>0.3030684321645683</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.829094</v>
+        <v>1.222391</v>
       </c>
       <c r="N9">
-        <v>2.487282</v>
+        <v>3.667173</v>
       </c>
       <c r="O9">
-        <v>0.03374004171190829</v>
+        <v>0.04717593986711188</v>
       </c>
       <c r="P9">
-        <v>0.03374004171190828</v>
+        <v>0.04717593986711189</v>
       </c>
       <c r="Q9">
-        <v>0.5183492924353332</v>
+        <v>0.7642384457363333</v>
       </c>
       <c r="R9">
-        <v>4.665143631917999</v>
+        <v>6.878146011626999</v>
       </c>
       <c r="S9">
-        <v>0.01194981233782894</v>
+        <v>0.01429753813141555</v>
       </c>
       <c r="T9">
-        <v>0.01194981233782894</v>
+        <v>0.01429753813141555</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1162336666666667</v>
+        <v>0.469433</v>
       </c>
       <c r="H10">
-        <v>0.348701</v>
+        <v>1.408299</v>
       </c>
       <c r="I10">
-        <v>0.06584588971383273</v>
+        <v>0.2275598195290835</v>
       </c>
       <c r="J10">
-        <v>0.06584588971383273</v>
+        <v>0.2275598195290835</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.378475333333333</v>
+        <v>1.815761</v>
       </c>
       <c r="N10">
-        <v>4.135426</v>
+        <v>5.447283000000001</v>
       </c>
       <c r="O10">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="P10">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="Q10">
-        <v>0.1602252424028889</v>
+        <v>0.8523781335130001</v>
       </c>
       <c r="R10">
-        <v>1.442027181626</v>
+        <v>7.671403201617</v>
       </c>
       <c r="S10">
-        <v>0.003693767130465483</v>
+        <v>0.01594647447308807</v>
       </c>
       <c r="T10">
-        <v>0.003693767130465483</v>
+        <v>0.01594647447308806</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1162336666666667</v>
+        <v>0.469433</v>
       </c>
       <c r="H11">
-        <v>0.348701</v>
+        <v>1.408299</v>
       </c>
       <c r="I11">
-        <v>0.06584588971383273</v>
+        <v>0.2275598195290835</v>
       </c>
       <c r="J11">
-        <v>0.06584588971383273</v>
+        <v>0.2275598195290835</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>39.485284</v>
       </c>
       <c r="O11">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959071</v>
       </c>
       <c r="P11">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959072</v>
       </c>
       <c r="Q11">
-        <v>1.529839779564889</v>
+        <v>6.178565107990666</v>
       </c>
       <c r="R11">
-        <v>13.768558016084</v>
+        <v>55.607085971916</v>
       </c>
       <c r="S11">
-        <v>0.03526829985019552</v>
+        <v>0.1155899323329874</v>
       </c>
       <c r="T11">
-        <v>0.03526829985019552</v>
+        <v>0.1155899323329874</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1162336666666667</v>
+        <v>0.469433</v>
       </c>
       <c r="H12">
-        <v>0.348701</v>
+        <v>1.408299</v>
       </c>
       <c r="I12">
-        <v>0.06584588971383273</v>
+        <v>0.2275598195290835</v>
       </c>
       <c r="J12">
-        <v>0.06584588971383273</v>
+        <v>0.2275598195290835</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.203668</v>
+        <v>9.711409333333334</v>
       </c>
       <c r="N12">
-        <v>27.611004</v>
+        <v>29.134228</v>
       </c>
       <c r="O12">
-        <v>0.3745439506528277</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="P12">
-        <v>0.3745439506528276</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="Q12">
-        <v>1.069776078422667</v>
+        <v>4.558856017574667</v>
       </c>
       <c r="R12">
-        <v>9.627984705804</v>
+        <v>41.029704158172</v>
       </c>
       <c r="S12">
-        <v>0.0246621796676693</v>
+        <v>0.08528806436073315</v>
       </c>
       <c r="T12">
-        <v>0.0246621796676693</v>
+        <v>0.08528806436073313</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1162336666666667</v>
+        <v>0.469433</v>
       </c>
       <c r="H13">
-        <v>0.348701</v>
+        <v>1.408299</v>
       </c>
       <c r="I13">
-        <v>0.06584588971383273</v>
+        <v>0.2275598195290835</v>
       </c>
       <c r="J13">
-        <v>0.06584588971383273</v>
+        <v>0.2275598195290835</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.829094</v>
+        <v>1.222391</v>
       </c>
       <c r="N13">
-        <v>2.487282</v>
+        <v>3.667173</v>
       </c>
       <c r="O13">
-        <v>0.03374004171190829</v>
+        <v>0.04717593986711188</v>
       </c>
       <c r="P13">
-        <v>0.03374004171190828</v>
+        <v>0.04717593986711189</v>
       </c>
       <c r="Q13">
-        <v>0.09636863563133333</v>
+        <v>0.5738306743029999</v>
       </c>
       <c r="R13">
-        <v>0.867317720682</v>
+        <v>5.164476068727</v>
       </c>
       <c r="S13">
-        <v>0.002221643065502429</v>
+        <v>0.01073534836227488</v>
       </c>
       <c r="T13">
-        <v>0.002221643065502429</v>
+        <v>0.01073534836227488</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.845399</v>
+        <v>0.546446</v>
       </c>
       <c r="H14">
-        <v>2.536197</v>
+        <v>1.639338</v>
       </c>
       <c r="I14">
-        <v>0.4789150244896155</v>
+        <v>0.2648922277351392</v>
       </c>
       <c r="J14">
-        <v>0.4789150244896155</v>
+        <v>0.2648922277351391</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.378475333333333</v>
+        <v>1.815761</v>
       </c>
       <c r="N14">
-        <v>4.135426</v>
+        <v>5.447283000000001</v>
       </c>
       <c r="O14">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="P14">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="Q14">
-        <v>1.165361668324667</v>
+        <v>0.992215335406</v>
       </c>
       <c r="R14">
-        <v>10.488255014922</v>
+        <v>8.929938018654001</v>
       </c>
       <c r="S14">
-        <v>0.02686577071756366</v>
+        <v>0.01856257908992568</v>
       </c>
       <c r="T14">
-        <v>0.02686577071756366</v>
+        <v>0.01856257908992568</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.845399</v>
+        <v>0.546446</v>
       </c>
       <c r="H15">
-        <v>2.536197</v>
+        <v>1.639338</v>
       </c>
       <c r="I15">
-        <v>0.4789150244896155</v>
+        <v>0.2648922277351392</v>
       </c>
       <c r="J15">
-        <v>0.4789150244896155</v>
+        <v>0.2648922277351391</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>39.485284</v>
       </c>
       <c r="O15">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959071</v>
       </c>
       <c r="P15">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959072</v>
       </c>
       <c r="Q15">
-        <v>11.12693986943867</v>
+        <v>7.192191833554666</v>
       </c>
       <c r="R15">
-        <v>100.142458824948</v>
+        <v>64.729726501992</v>
       </c>
       <c r="S15">
-        <v>0.2565159155699764</v>
+        <v>0.1345530803408189</v>
       </c>
       <c r="T15">
-        <v>0.2565159155699764</v>
+        <v>0.1345530803408189</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.845399</v>
+        <v>0.546446</v>
       </c>
       <c r="H16">
-        <v>2.536197</v>
+        <v>1.639338</v>
       </c>
       <c r="I16">
-        <v>0.4789150244896155</v>
+        <v>0.2648922277351392</v>
       </c>
       <c r="J16">
-        <v>0.4789150244896155</v>
+        <v>0.2648922277351391</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.203668</v>
+        <v>9.711409333333334</v>
       </c>
       <c r="N16">
-        <v>27.611004</v>
+        <v>29.134228</v>
       </c>
       <c r="O16">
-        <v>0.3745439506528277</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="P16">
-        <v>0.3745439506528276</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="Q16">
-        <v>7.780771723532</v>
+        <v>5.306760784562667</v>
       </c>
       <c r="R16">
-        <v>70.026945511788</v>
+        <v>47.760847061064</v>
       </c>
       <c r="S16">
-        <v>0.1793747252993363</v>
+        <v>0.09928002849749631</v>
       </c>
       <c r="T16">
-        <v>0.1793747252993363</v>
+        <v>0.0992800284974963</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.845399</v>
+        <v>0.546446</v>
       </c>
       <c r="H17">
-        <v>2.536197</v>
+        <v>1.639338</v>
       </c>
       <c r="I17">
-        <v>0.4789150244896155</v>
+        <v>0.2648922277351392</v>
       </c>
       <c r="J17">
-        <v>0.4789150244896155</v>
+        <v>0.2648922277351391</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.829094</v>
+        <v>1.222391</v>
       </c>
       <c r="N17">
-        <v>2.487282</v>
+        <v>3.667173</v>
       </c>
       <c r="O17">
-        <v>0.03374004171190829</v>
+        <v>0.04717593986711188</v>
       </c>
       <c r="P17">
-        <v>0.03374004171190828</v>
+        <v>0.04717593986711189</v>
       </c>
       <c r="Q17">
-        <v>0.700915238506</v>
+        <v>0.6679706723859999</v>
       </c>
       <c r="R17">
-        <v>6.308237146554</v>
+        <v>6.011736051474</v>
       </c>
       <c r="S17">
-        <v>0.01615861290273921</v>
+        <v>0.01249653980689823</v>
       </c>
       <c r="T17">
-        <v>0.01615861290273921</v>
+        <v>0.01249653980689823</v>
       </c>
     </row>
   </sheetData>
